--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$49</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="318">
   <si>
     <t>Path</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Product generating the communication</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
     <t>communicationOnBehalfOf</t>
   </si>
   <si>
@@ -400,6 +397,16 @@
     <t>Priority of the communication request (1 = highest)</t>
   </si>
   <si>
+    <t>communicationLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-language}
+</t>
+  </si>
+  <si>
+    <t>Language used for communication messaging content</t>
+  </si>
+  <si>
     <t>communicationTemplate</t>
   </si>
   <si>
@@ -410,6 +417,9 @@
     <t>Optional Extensions Element</t>
   </si>
   <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t>communicationPayloadData</t>
   </si>
   <si>
@@ -435,6 +445,16 @@
   </si>
   <si>
     <t>Type of conversation, used for ihe chat communications</t>
+  </si>
+  <si>
+    <t>communicationReengagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-reengagement}
+</t>
+  </si>
+  <si>
+    <t>Sequence for subsequent communication attempts to reengage the patient</t>
   </si>
   <si>
     <t>communicationRetryLimit</t>
@@ -1154,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL47"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2208,7 +2228,7 @@
         <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2288,7 +2308,7 @@
         <v>93</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>39</v>
@@ -2310,13 +2330,13 @@
         <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2396,7 +2416,7 @@
         <v>93</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>39</v>
@@ -2418,13 +2438,13 @@
         <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2504,7 +2524,7 @@
         <v>93</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>39</v>
@@ -2526,13 +2546,13 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2612,7 +2632,7 @@
         <v>93</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>39</v>
@@ -2634,13 +2654,13 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2720,7 +2740,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>39</v>
@@ -2742,13 +2762,13 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2828,14 +2848,14 @@
         <v>93</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>48</v>
@@ -2850,13 +2870,13 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2936,7 +2956,7 @@
         <v>93</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>39</v>
@@ -2958,13 +2978,13 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3044,14 +3064,14 @@
         <v>93</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>48</v>
@@ -3066,13 +3086,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3180,7 +3200,7 @@
         <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3240,7 +3260,7 @@
         <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>101</v>
@@ -3288,7 +3308,7 @@
         <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3365,43 +3385,41 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>39</v>
       </c>
@@ -3449,7 +3467,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3475,9 +3493,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3486,7 +3506,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>39</v>
@@ -3495,23 +3515,19 @@
         <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3559,7 +3575,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3571,54 +3587,56 @@
         <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3667,7 +3685,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3679,25 +3697,25 @@
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3716,19 +3734,19 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -3777,7 +3795,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3792,29 +3810,29 @@
         <v>61</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>166</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
@@ -3826,18 +3844,18 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
       </c>
@@ -3885,13 +3903,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -3900,50 +3918,54 @@
         <v>61</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
       </c>
@@ -3967,13 +3989,13 @@
         <v>39</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>39</v>
@@ -3991,13 +4013,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -4006,22 +4028,22 @@
         <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>39</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4037,19 +4059,19 @@
         <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4075,11 +4097,13 @@
         <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>39</v>
@@ -4097,7 +4121,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4112,18 +4136,18 @@
         <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4131,32 +4155,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4181,13 +4203,13 @@
         <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>39</v>
@@ -4205,13 +4227,13 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -4220,10 +4242,10 @@
         <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4231,11 +4253,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4251,25 +4273,25 @@
         <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4289,13 +4311,11 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4313,7 +4333,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4328,58 +4348,56 @@
         <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>39</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>39</v>
       </c>
@@ -4399,13 +4417,13 @@
         <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4423,13 +4441,13 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4438,10 +4456,10 @@
         <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4449,7 +4467,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4457,7 +4475,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>48</v>
@@ -4469,23 +4487,25 @@
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Q31" t="s" s="2">
         <v>39</v>
       </c>
@@ -4505,11 +4525,13 @@
         <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
@@ -4527,13 +4549,13 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -4542,10 +4564,10 @@
         <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
@@ -4553,43 +4575,47 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="Q32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4633,7 +4659,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4648,10 +4674,10 @@
         <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>39</v>
@@ -4659,7 +4685,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4667,10 +4693,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
@@ -4682,17 +4708,15 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
@@ -4717,13 +4741,11 @@
         <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4741,7 +4763,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4756,10 +4778,10 @@
         <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -4767,18 +4789,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4787,20 +4809,18 @@
         <v>39</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>39</v>
@@ -4849,7 +4869,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4864,10 +4884,10 @@
         <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -4875,7 +4895,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4898,15 +4918,17 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -4955,7 +4977,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4970,10 +4992,10 @@
         <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -4981,7 +5003,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4992,7 +5014,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -5001,18 +5023,20 @@
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5061,7 +5085,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5073,25 +5097,25 @@
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>246</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5110,17 +5134,15 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5169,7 +5191,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5181,7 +5203,7 @@
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>39</v>
@@ -5190,48 +5212,44 @@
         <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>246</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5279,19 +5297,19 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>39</v>
@@ -5300,23 +5318,23 @@
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>62</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
@@ -5328,15 +5346,17 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>257</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5388,62 +5408,66 @@
         <v>256</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>39</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>263</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5497,35 +5521,35 @@
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>48</v>
@@ -5537,16 +5561,16 @@
         <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5597,10 +5621,10 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>48</v>
@@ -5612,10 +5636,10 @@
         <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -5623,11 +5647,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5646,13 +5670,13 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5703,7 +5727,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5718,29 +5742,29 @@
         <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>282</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5749,16 +5773,16 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5809,13 +5833,13 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
@@ -5824,10 +5848,10 @@
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -5835,11 +5859,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5858,13 +5882,13 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5915,7 +5939,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5930,18 +5954,18 @@
         <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5952,7 +5976,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -5961,20 +5985,18 @@
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -5999,13 +6021,13 @@
         <v>39</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>298</v>
+        <v>39</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>39</v>
@@ -6023,7 +6045,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6038,18 +6060,18 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>301</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6060,7 +6082,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -6072,13 +6094,13 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6129,13 +6151,13 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
@@ -6144,18 +6166,18 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>306</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6175,18 +6197,20 @@
         <v>39</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6211,13 +6235,13 @@
         <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6235,7 +6259,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6250,17 +6274,229 @@
         <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>311</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL47">
+  <autoFilter ref="A1:AL49">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6270,7 +6506,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI46">
+  <conditionalFormatting sqref="A2:AI48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="354">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,16 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -514,10 +517,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Communication Template</t>
+  </si>
+  <si>
+    <t>ID or url reference to template to be used for communication</t>
   </si>
   <si>
     <t>communicationPayloadData</t>
@@ -525,6 +528,12 @@
   <si>
     <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-payload-data}
 </t>
+  </si>
+  <si>
+    <t>Communication Payload Data</t>
+  </si>
+  <si>
+    <t>Contains dynamic data elements and vendor / medium specific elements to be included in the message payload</t>
   </si>
   <si>
     <t>communicationVendor</t>
@@ -1274,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1350,90 +1359,84 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1494,5274 +1497,5274 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="X28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AF28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Q31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AF31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -553,7 +553,7 @@
 </t>
   </si>
   <si>
-    <t>Type of conversation, used for ihe chat communications</t>
+    <t>Type of conversation, used for chat communications</t>
   </si>
   <si>
     <t>communicationReengagement</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1455,40 +1455,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.8203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.82421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.4375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="74.45703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.5625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="355">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,650 +271,654 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>communicationProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-product}
+</t>
+  </si>
+  <si>
+    <t>Product generating the communication</t>
+  </si>
+  <si>
+    <t>communicationOnBehalfOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-on-behalf-of}
+</t>
+  </si>
+  <si>
+    <t>Attributed provider, location, or organization communication is on-behalf of</t>
+  </si>
+  <si>
+    <t>communicationContact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-contact}
+</t>
+  </si>
+  <si>
+    <t>Phone number, email, or address to contact</t>
+  </si>
+  <si>
+    <t>communicationMeasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-measure}
+</t>
+  </si>
+  <si>
+    <t>Reference to the measure that resulted in the communication</t>
+  </si>
+  <si>
+    <t>communicationCareGap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-care-gap}
+</t>
+  </si>
+  <si>
+    <t>ID of care gap for which we are communicating</t>
+  </si>
+  <si>
+    <t>communicationPrioritySequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-priority-sequence}
+</t>
+  </si>
+  <si>
+    <t>Priority of the communication request (1 = highest)</t>
+  </si>
+  <si>
+    <t>communicationLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-language}
+</t>
+  </si>
+  <si>
+    <t>Language used for communication messaging content</t>
+  </si>
+  <si>
+    <t>communicationTemplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-template}
+</t>
+  </si>
+  <si>
+    <t>Communication Template</t>
+  </si>
+  <si>
+    <t>ID or url reference to template to be used for communication</t>
+  </si>
+  <si>
+    <t>communicationPayloadData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-payload-data}
+</t>
+  </si>
+  <si>
+    <t>Communication Payload Data</t>
+  </si>
+  <si>
+    <t>Contains dynamic data elements and vendor / medium specific elements to be included in the message payload</t>
+  </si>
+  <si>
+    <t>communicationVendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-vendor}
+</t>
+  </si>
+  <si>
+    <t>Vendor used to send the communication</t>
+  </si>
+  <si>
+    <t>conversationType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/conversation-type}
+</t>
+  </si>
+  <si>
+    <t>Type of conversation, used for chat communications</t>
+  </si>
+  <si>
+    <t>communicationReengagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-reengagement}
+</t>
+  </si>
+  <si>
+    <t>Sequence for subsequent communication attempts to reengage the patient</t>
+  </si>
+  <si>
+    <t>communicationRetryLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-retry-limt}
+</t>
+  </si>
+  <si>
+    <t>Retry limit configuration, may vary by medium and vendor</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique identifier</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this communication request by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the communication request as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan or proposal</t>
+  </si>
+  <si>
+    <t>A plan or proposal that is fulfilled in whole or in part by this request.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the request and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+prior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CommunicationRequest)
+</t>
+  </si>
+  <si>
+    <t>Request(s) replaced by this request</t>
+  </si>
+  <si>
+    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.groupIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grouperId
+</t>
+  </si>
+  <si>
+    <t>Composite request this is part of</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition, prescription or similar form.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition.  Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the proposal or order.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the communication request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.statusReason</t>
+  </si>
+  <si>
+    <t>Suspended Reason
+Cancelled Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the CommunicationRequest.</t>
+  </si>
+  <si>
+    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason why the CommunicationRequest was created at all is captured in reasonCode, not here.  [distinct reason codes for different statuses can be enforced using invariants if they are universal bindings].</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-request-status</t>
+  </si>
+  <si>
+    <t>Request.statusReason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.category</t>
+  </si>
+  <si>
+    <t>Message category</t>
+  </si>
+  <si>
+    <t>The type of message to be sent such as alert, notification, reminder, instruction, etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one communication request may serve multiple purposes.</t>
+  </si>
+  <si>
+    <t>Codes for general categories of communications such as alerts, instruction, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/communication-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Characterizes how quickly the proposed act must be initiated. Includes concepts such as stat, urgent, routine.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Codes indicating the relative importance of a communication request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prohibited
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if request is prohibiting action</t>
+  </si>
+  <si>
+    <t>If true indicates that the CommunicationRequest is asking for the specified action to *not* occur.</t>
+  </si>
+  <si>
+    <t>The attributes provided with the request qualify what is not to be done.</t>
+  </si>
+  <si>
+    <t>If do not perform is not specified, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>Request.doNotPerform</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.medium</t>
+  </si>
+  <si>
+    <t>Medium used as the mode of communication for engagement (phone | sms | email | mail | chat)</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-mode</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Focus of message</t>
+  </si>
+  <si>
+    <t>The patient or group that is the focus of this communication request.</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ibm.com/fhir/cdm/StructureDefinition/measure-population-observation|http://ibm.com/fhir/cdm/StructureDefinition/care-gap-detected-issue)
+</t>
+  </si>
+  <si>
+    <t>Resources that pertain to this communication request</t>
+  </si>
+  <si>
+    <t>Other resources that pertain to this communication request and to which this communication request should be associated.</t>
+  </si>
+  <si>
+    <t>Don't use CommunicationRequest.about element when a more specific element exists, such as basedOn, reasonReference, or replaces.</t>
+  </si>
+  <si>
+    <t>Request.supportingInfo</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this CommunicationRequest was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
+  </si>
+  <si>
+    <t>Request.context</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Message payload</t>
+  </si>
+  <si>
+    <t>Text, attachment(s), or resource(s) to be communicated to the recipient.</t>
+  </si>
+  <si>
+    <t>CommunicationRequest.payload.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.extension</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>communicationProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-product}
-</t>
-  </si>
-  <si>
-    <t>Product generating the communication</t>
-  </si>
-  <si>
-    <t>communicationOnBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-on-behalf-of}
-</t>
-  </si>
-  <si>
-    <t>Attributed provider, location, or organization communication is on-behalf of</t>
-  </si>
-  <si>
-    <t>communicationContact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-contact}
-</t>
-  </si>
-  <si>
-    <t>Phone number, email, or address to contact</t>
-  </si>
-  <si>
-    <t>communicationMeasure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-measure}
-</t>
-  </si>
-  <si>
-    <t>Reference to the measure that resulted in the communication</t>
-  </si>
-  <si>
-    <t>communicationCareGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-care-gap}
-</t>
-  </si>
-  <si>
-    <t>ID of care gap for which we are communicating</t>
-  </si>
-  <si>
-    <t>communicationPrioritySequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-priority-sequence}
-</t>
-  </si>
-  <si>
-    <t>Priority of the communication request (1 = highest)</t>
-  </si>
-  <si>
-    <t>communicationLanguage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-language}
-</t>
-  </si>
-  <si>
-    <t>Language used for communication messaging content</t>
-  </si>
-  <si>
-    <t>communicationTemplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-template}
-</t>
-  </si>
-  <si>
-    <t>Communication Template</t>
-  </si>
-  <si>
-    <t>ID or url reference to template to be used for communication</t>
-  </si>
-  <si>
-    <t>communicationPayloadData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-payload-data}
-</t>
-  </si>
-  <si>
-    <t>Communication Payload Data</t>
-  </si>
-  <si>
-    <t>Contains dynamic data elements and vendor / medium specific elements to be included in the message payload</t>
-  </si>
-  <si>
-    <t>communicationVendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-vendor}
-</t>
-  </si>
-  <si>
-    <t>Vendor used to send the communication</t>
-  </si>
-  <si>
-    <t>conversationType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/conversation-type}
-</t>
-  </si>
-  <si>
-    <t>Type of conversation, used for chat communications</t>
-  </si>
-  <si>
-    <t>communicationReengagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-reengagement}
-</t>
-  </si>
-  <si>
-    <t>Sequence for subsequent communication attempts to reengage the patient</t>
-  </si>
-  <si>
-    <t>communicationRetryLimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-retry-limt}
-</t>
-  </si>
-  <si>
-    <t>Retry limit configuration, may vary by medium and vendor</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique identifier</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this communication request by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the communication request as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan or proposal</t>
-  </si>
-  <si>
-    <t>A plan or proposal that is fulfilled in whole or in part by this request.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the request and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-prior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CommunicationRequest)
-</t>
-  </si>
-  <si>
-    <t>Request(s) replaced by this request</t>
-  </si>
-  <si>
-    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.groupIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grouperId
-</t>
-  </si>
-  <si>
-    <t>Composite request this is part of</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition, prescription or similar form.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition.  Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the proposal or order.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the communication request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.statusReason</t>
-  </si>
-  <si>
-    <t>Suspended Reason
-Cancelled Reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>Captures the reason for the current state of the CommunicationRequest.</t>
-  </si>
-  <si>
-    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason why the CommunicationRequest was created at all is captured in reasonCode, not here.  [distinct reason codes for different statuses can be enforced using invariants if they are universal bindings].</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-request-status</t>
-  </si>
-  <si>
-    <t>Request.statusReason</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.category</t>
-  </si>
-  <si>
-    <t>Message category</t>
-  </si>
-  <si>
-    <t>The type of message to be sent such as alert, notification, reminder, instruction, etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one communication request may serve multiple purposes.</t>
-  </si>
-  <si>
-    <t>Codes for general categories of communications such as alerts, instruction, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/communication-category</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Characterizes how quickly the proposed act must be initiated. Includes concepts such as stat, urgent, routine.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Codes indicating the relative importance of a communication request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prohibited
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if request is prohibiting action</t>
-  </si>
-  <si>
-    <t>If true indicates that the CommunicationRequest is asking for the specified action to *not* occur.</t>
-  </si>
-  <si>
-    <t>The attributes provided with the request qualify what is not to be done.</t>
-  </si>
-  <si>
-    <t>If do not perform is not specified, the request is a positive request e.g. "do perform"</t>
-  </si>
-  <si>
-    <t>Request.doNotPerform</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.medium</t>
-  </si>
-  <si>
-    <t>Medium used as the mode of communication for engagement (phone | sms | email | mail | chat)</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-mode</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>Focus of message</t>
-  </si>
-  <si>
-    <t>The patient or group that is the focus of this communication request.</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.about</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ibm.com/fhir/cdm/StructureDefinition/measure-population-observation|http://ibm.com/fhir/cdm/StructureDefinition/care-gap-detected-issue)
-</t>
-  </si>
-  <si>
-    <t>Resources that pertain to this communication request</t>
-  </si>
-  <si>
-    <t>Other resources that pertain to this communication request and to which this communication request should be associated.</t>
-  </si>
-  <si>
-    <t>Don't use CommunicationRequest.about element when a more specific element exists, such as basedOn, reasonReference, or replaces.</t>
-  </si>
-  <si>
-    <t>Request.supportingInfo</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this CommunicationRequest was created or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
-  </si>
-  <si>
-    <t>Request.context</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Message payload</t>
-  </si>
-  <si>
-    <t>Text, attachment(s), or resource(s) to be communicated to the recipient.</t>
-  </si>
-  <si>
-    <t>CommunicationRequest.payload.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5512,13 +5516,13 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5569,7 +5573,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5590,12 +5594,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5621,10 +5625,10 @@
         <v>129</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>181</v>
@@ -5677,7 +5681,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5698,16 +5702,16 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5729,10 +5733,10 @@
         <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>181</v>
@@ -5787,7 +5791,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5813,7 +5817,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5836,13 +5840,13 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5893,7 +5897,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>82</v>
@@ -5908,7 +5912,7 @@
         <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
@@ -5919,11 +5923,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5942,13 +5946,13 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5999,7 +6003,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6014,10 +6018,10 @@
         <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
@@ -6025,11 +6029,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6048,13 +6052,13 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6105,7 +6109,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6120,10 +6124,10 @@
         <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
@@ -6131,11 +6135,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6154,13 +6158,13 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6211,7 +6215,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -6226,18 +6230,18 @@
         <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6260,13 +6264,13 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6317,7 +6321,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6332,10 +6336,10 @@
         <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>73</v>
@@ -6343,7 +6347,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6366,13 +6370,13 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6423,7 +6427,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6438,10 +6442,10 @@
         <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -6449,7 +6453,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6475,13 +6479,13 @@
         <v>226</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6510,10 +6514,10 @@
         <v>230</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>73</v>
@@ -6531,7 +6535,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6546,18 +6550,18 @@
         <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6580,13 +6584,13 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6637,7 +6641,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6652,18 +6656,18 @@
         <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6686,13 +6690,13 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6743,7 +6747,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6758,13 +6762,13 @@
         <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-engagement-communication-request.xlsx
+++ b/StructureDefinition-engagement-communication-request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="354">
   <si>
     <t>Property</t>
   </si>
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/engagement-communication-request</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/engagement-communication-request</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-communication-request</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-communication-request</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>A request to convey information; e.g. the CDS system proposes that an alert be sent to a responsible provider, the CDS system proposes that the public health agency be notified about a reportable condition.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -290,7 +286,7 @@
     <t>CommunicationRequest.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -443,7 +439,7 @@
     <t>communicationProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-product}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-product}
 </t>
   </si>
   <si>
@@ -453,7 +449,7 @@
     <t>communicationOnBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-on-behalf-of}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-on-behalf-of}
 </t>
   </si>
   <si>
@@ -463,7 +459,7 @@
     <t>communicationContact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-contact}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-contact}
 </t>
   </si>
   <si>
@@ -473,7 +469,7 @@
     <t>communicationMeasure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-measure}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-measure}
 </t>
   </si>
   <si>
@@ -483,7 +479,7 @@
     <t>communicationCareGap</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-care-gap}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-care-gap}
 </t>
   </si>
   <si>
@@ -493,7 +489,7 @@
     <t>communicationPrioritySequence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-priority-sequence}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-priority-sequence}
 </t>
   </si>
   <si>
@@ -503,7 +499,7 @@
     <t>communicationLanguage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-language}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-language}
 </t>
   </si>
   <si>
@@ -513,7 +509,7 @@
     <t>communicationTemplate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-template}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-template}
 </t>
   </si>
   <si>
@@ -526,7 +522,7 @@
     <t>communicationPayloadData</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-payload-data}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-payload-data}
 </t>
   </si>
   <si>
@@ -539,7 +535,7 @@
     <t>communicationVendor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-vendor}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-vendor}
 </t>
   </si>
   <si>
@@ -549,7 +545,7 @@
     <t>conversationType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/conversation-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/conversation-type}
 </t>
   </si>
   <si>
@@ -559,7 +555,7 @@
     <t>communicationReengagement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-reengagement}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-reengagement}
 </t>
   </si>
   <si>
@@ -569,7 +565,7 @@
     <t>communicationRetryLimit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-retry-limt}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-retry-limt}
 </t>
   </si>
   <si>
@@ -748,7 +744,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-request-status</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/eng-communication-request-status</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -834,7 +830,7 @@
     <t>Medium used as the mode of communication for engagement (phone | sms | email | mail | chat)</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-mode</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/eng-communication-mode</t>
   </si>
   <si>
     <t>CommunicationRequest.subject</t>
@@ -863,7 +859,7 @@
     <t>CommunicationRequest.about</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ibm.com/fhir/cdm/StructureDefinition/measure-population-observation|http://ibm.com/fhir/cdm/StructureDefinition/care-gap-detected-issue)
+    <t xml:space="preserve">Reference(http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-population-observation|http://linuxforhealth.org/fhir/cdm/StructureDefinition/care-gap-detected-issue)
 </t>
   </si>
   <si>
@@ -1483,7 +1479,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="74.45703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.5625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.98046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -1709,21 +1705,21 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1734,28 +1730,28 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1805,13 +1801,13 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -1831,7 +1827,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1842,7 +1838,7 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>73</v>
@@ -1854,13 +1850,13 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1911,33 +1907,33 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1948,28 +1944,28 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2019,19 +2015,19 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -2045,7 +2041,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2056,7 +2052,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -2068,16 +2064,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2103,43 +2099,43 @@
         <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -2153,18 +2149,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -2176,16 +2172,16 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2235,37 +2231,37 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2284,16 +2280,16 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2343,7 +2339,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -2364,12 +2360,12 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2377,7 +2373,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>75</v>
@@ -2392,13 +2388,13 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2437,17 +2433,17 @@
         <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2459,7 +2455,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2473,10 +2469,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>73</v>
@@ -2486,7 +2482,7 @@
         <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
@@ -2498,13 +2494,13 @@
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2555,7 +2551,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2564,10 +2560,10 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2581,10 +2577,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>73</v>
@@ -2594,7 +2590,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2606,13 +2602,13 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2663,7 +2659,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2672,10 +2668,10 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>73</v>
@@ -2689,24 +2685,24 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2714,13 +2710,13 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2771,7 +2767,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -2780,10 +2776,10 @@
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
@@ -2797,10 +2793,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>73</v>
@@ -2810,7 +2806,7 @@
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2822,13 +2818,13 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2879,7 +2875,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2888,10 +2884,10 @@
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -2905,10 +2901,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>73</v>
@@ -2918,7 +2914,7 @@
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2930,13 +2926,13 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2987,7 +2983,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2996,10 +2992,10 @@
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -3013,10 +3009,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>73</v>
@@ -3026,7 +3022,7 @@
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -3038,13 +3034,13 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3095,7 +3091,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3104,10 +3100,10 @@
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -3121,10 +3117,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>73</v>
@@ -3134,7 +3130,7 @@
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -3146,13 +3142,13 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3203,7 +3199,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3212,10 +3208,10 @@
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
@@ -3229,20 +3225,20 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3254,13 +3250,13 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3311,7 +3307,7 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3320,10 +3316,10 @@
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -3337,20 +3333,20 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3362,13 +3358,13 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3419,7 +3415,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3428,10 +3424,10 @@
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -3445,10 +3441,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>73</v>
@@ -3458,7 +3454,7 @@
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3470,13 +3466,13 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3527,7 +3523,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3536,10 +3532,10 @@
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3553,10 +3549,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>73</v>
@@ -3566,7 +3562,7 @@
         <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>73</v>
@@ -3578,13 +3574,13 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3635,7 +3631,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3647,7 +3643,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3661,10 +3657,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>73</v>
@@ -3674,7 +3670,7 @@
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
@@ -3686,13 +3682,13 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3743,7 +3739,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3755,7 +3751,7 @@
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>73</v>
@@ -3769,10 +3765,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>73</v>
@@ -3782,7 +3778,7 @@
         <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>73</v>
@@ -3794,13 +3790,13 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3851,7 +3847,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3863,7 +3859,7 @@
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>73</v>
@@ -3877,11 +3873,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3894,25 +3890,25 @@
         <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3961,7 +3957,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3973,7 +3969,7 @@
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>73</v>
@@ -3982,12 +3978,12 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4007,22 +4003,22 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
@@ -4071,7 +4067,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4083,13 +4079,13 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>73</v>
@@ -4097,11 +4093,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4117,20 +4113,20 @@
         <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -4179,7 +4175,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4191,25 +4187,25 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4225,22 +4221,22 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
@@ -4289,7 +4285,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4301,53 +4297,53 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4397,33 +4393,33 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4431,28 +4427,28 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="I28" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4479,49 +4475,49 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>73</v>
@@ -4529,18 +4525,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4552,16 +4548,16 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4587,55 +4583,55 @@
         <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4658,16 +4654,16 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4693,14 +4689,14 @@
         <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>73</v>
       </c>
@@ -4717,7 +4713,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4729,13 +4725,13 @@
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>73</v>
@@ -4743,7 +4739,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4754,25 +4750,25 @@
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4780,70 +4776,70 @@
         <v>73</v>
       </c>
       <c r="P31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Q31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>73</v>
@@ -4851,11 +4847,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4868,89 +4864,89 @@
         <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>73</v>
@@ -4961,7 +4957,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4969,10 +4965,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
@@ -4984,13 +4980,13 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5017,11 +5013,11 @@
         <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>73</v>
@@ -5039,7 +5035,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5051,7 +5047,7 @@
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5065,18 +5061,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -5088,13 +5084,13 @@
         <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5145,25 +5141,25 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>73</v>
@@ -5171,7 +5167,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5194,16 +5190,16 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5253,7 +5249,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5265,13 +5261,13 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
@@ -5279,7 +5275,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5299,19 +5295,19 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5361,25 +5357,25 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
@@ -5387,7 +5383,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5410,13 +5406,13 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5467,7 +5463,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5479,7 +5475,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5493,7 +5489,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5504,7 +5500,7 @@
         <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -5516,13 +5512,13 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5573,37 +5569,37 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5622,16 +5618,16 @@
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5681,7 +5677,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5693,7 +5689,7 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>73</v>
@@ -5702,16 +5698,16 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5724,25 +5720,25 @@
         <v>73</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M40" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -5791,7 +5787,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5803,7 +5799,7 @@
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -5812,12 +5808,12 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5825,10 +5821,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>73</v>
@@ -5840,13 +5836,13 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5897,22 +5893,22 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
@@ -5923,36 +5919,36 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6003,25 +5999,25 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
@@ -6029,36 +6025,36 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6109,25 +6105,25 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
@@ -6135,36 +6131,36 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6215,33 +6211,33 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6264,13 +6260,13 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6321,7 +6317,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6333,13 +6329,13 @@
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>73</v>
@@ -6347,7 +6343,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6358,25 +6354,25 @@
         <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6427,25 +6423,25 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -6453,7 +6449,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6473,19 +6469,19 @@
         <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6511,14 +6507,14 @@
         <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6535,7 +6531,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6547,21 +6543,21 @@
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6581,16 +6577,16 @@
         <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6641,7 +6637,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6653,21 +6649,21 @@
         <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6690,13 +6686,13 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6747,7 +6743,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6759,16 +6755,16 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
